--- a/Salary/W5 Salaries and Tasks.xlsx
+++ b/Salary/W5 Salaries and Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas33\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Polybox Lokal\0.ausdrucken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD8AE5-5467-47CE-B91C-740F65961607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EEF9B-C73D-4E1D-ABC3-841F90D43A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -172,7 +171,7 @@
     <t>Prototypes</t>
   </si>
   <si>
-    <t>tba</t>
+    <t>Pick "perfect" idea and prototype it</t>
   </si>
 </sst>
 </file>
@@ -311,6 +310,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -319,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,35 +604,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.09765625" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>44118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -641,7 +640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -649,11 +648,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -661,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -669,7 +668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -677,7 +676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -685,7 +684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -693,17 +692,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -712,7 +711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -721,15 +720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -737,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -745,29 +744,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
     </row>

--- a/Salary/W5 Salaries and Tasks.xlsx
+++ b/Salary/W5 Salaries and Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Polybox Lokal\0.ausdrucken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Polybox Lokal\5.HS20\[W] HCI (Human Computer Interaction)\Übungen\Salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EEF9B-C73D-4E1D-ABC3-841F90D43A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D4FDE-9FA9-4959-9289-E1A54B9B1102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -45,21 +45,6 @@
   </si>
   <si>
     <t>Total Number of Team Members</t>
-  </si>
-  <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>Member 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Total salary distributed </t>
@@ -172,6 +157,18 @@
   </si>
   <si>
     <t>Pick "perfect" idea and prototype it</t>
+  </si>
+  <si>
+    <t>Lukas Hasler</t>
+  </si>
+  <si>
+    <t>Pascal Strebel</t>
+  </si>
+  <si>
+    <t>Cedric Weibel</t>
+  </si>
+  <si>
+    <t>Robin Schmidiger</t>
   </si>
 </sst>
 </file>
@@ -604,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -637,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,15 +651,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>100</v>
@@ -670,7 +667,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>100</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>100</v>
@@ -686,16 +683,14 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +699,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7">
         <f>SUM(B8:B12)</f>
@@ -713,7 +708,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7">
         <f>B5*100-B14</f>
@@ -730,23 +725,23 @@
     </row>
     <row r="18" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6"/>
     </row>
